--- a/biology/Histoire de la zoologie et de la botanique/Gartenflora/Gartenflora.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gartenflora/Gartenflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gartenflora[1] est une revue mensuelle illustrée de botanique et d'horticulture fondée en 1852 par Eduard von Regel (futur directeur du jardin botanique impérial de Saint-Pétersbourg de 1875 à sa mort en 1892) éditée en allemand. Elle est d'abord éditée à Erlangen par la maison d'éditions Ferdinand Enke, puis publiée sous la responsabilité de la Société russe d'horticulture de Saint-Pétersbourg, à partir de 1860, cinq ans après l'installation de Regel à Saint-Pétersbourg, jusqu'en 1868, date à laquelle la Société change de nom, devenant la Société d'horticulture impériale de Saint-Pétersbourg (1869-1894). Elle est ensuite éditée à Berlin par la Société d'horticulture de Prusse (Verein zur Beförderung des Gartenbaues in den preussischen Staaten) de 1894 à 1910 et de 1911 à 1940 par la Société d'horticulture allemande (Deutsche Gartenbau-Gesellschaft).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gartenflora est une revue mensuelle illustrée de botanique et d'horticulture fondée en 1852 par Eduard von Regel (futur directeur du jardin botanique impérial de Saint-Pétersbourg de 1875 à sa mort en 1892) éditée en allemand. Elle est d'abord éditée à Erlangen par la maison d'éditions Ferdinand Enke, puis publiée sous la responsabilité de la Société russe d'horticulture de Saint-Pétersbourg, à partir de 1860, cinq ans après l'installation de Regel à Saint-Pétersbourg, jusqu'en 1868, date à laquelle la Société change de nom, devenant la Société d'horticulture impériale de Saint-Pétersbourg (1869-1894). Elle est ensuite éditée à Berlin par la Société d'horticulture de Prusse (Verein zur Beförderung des Gartenbaues in den preussischen Staaten) de 1894 à 1910 et de 1911 à 1940 par la Société d'horticulture allemande (Deutsche Gartenbau-Gesellschaft).
 Au début, Eduard von Regel était assisté pour la partie allemande des botanistes Hermann Jäger Hofgärtner d'Eisenach (jardinier à la cour d'Eisenach) et pour la partie suisse d'Eduard Ortgies, jardinier-en-chef du jardin botanique de Zurich, auxquels se joignent d'autres botanistes par la suite comme Carl Bouché, inspecteur du jardin botanique de Berlin ou Fr. Francke jardinier-en-chef du jardin botanique royal d'Erlangen.
 La revue a cessé de paraître entre juin et octobre 1920, entre septembre et décembre 1923 et définitivement en 1940. Son abréviation botanique est Gartenfl.
 </t>
